--- a/Reddit_p1.xlsx
+++ b/Reddit_p1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sima_sajjadiani_ubc_ca/Documents/Robin/Police Shooting/Data/Reddit Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sima_sajjadiani_ubc_ca/Documents/Robin/Police Shooting/Data/ML Python Codes/Police Shooting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{85C56110-400E-4FA7-B3FD-880B120880A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{CD5E21A9-CEED-434E-9390-2EFB1A699519}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{85C56110-400E-4FA7-B3FD-880B120880A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{F3AA2C51-DDC1-7A47-A3D1-5BC911175C3E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -276,7 +276,7 @@
     <t>I'm 32, I wonder what the new generation will think of us when they are 32. I wish you well in raising two humans who will do better than us and our parents.</t>
   </si>
   <si>
-    <t>topic_BLM1</t>
+    <t>topic_BLM</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1132,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H1" activeCellId="1" sqref="F1:F1048576 H1:H1048576"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
